--- a/precision/fcu-taxref/result_fcu_taxref_merge.xlsx
+++ b/precision/fcu-taxref/result_fcu_taxref_merge.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmichel\Documents\Development\d2kab-alignments\fcu-taxref\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="911">
   <si>
     <t>fcu_concept</t>
   </si>
@@ -2757,8 +2752,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2829,24 +2824,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2888,7 +2875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2920,10 +2907,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2955,7 +2941,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3131,23 +3116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G394"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3170,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3163,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3180,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3221,7 +3197,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3214,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3255,7 +3231,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3272,7 +3248,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3289,7 +3265,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3306,7 +3282,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3299,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3316,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3357,7 +3333,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3374,7 +3350,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3391,7 +3367,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -3408,7 +3384,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3425,7 +3401,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3442,7 +3418,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3459,7 +3435,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3476,7 +3452,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3493,7 +3469,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3510,7 +3486,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3527,7 +3503,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3544,7 +3520,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3537,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3554,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -3595,7 +3571,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3612,7 +3588,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -3629,7 +3605,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3622,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3663,7 +3639,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -3680,7 +3656,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -3697,7 +3673,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -3714,7 +3690,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -3731,7 +3707,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -3748,92 +3724,92 @@
         <v>907</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="G40" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -3850,43 +3826,43 @@
         <v>907</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>168</v>
@@ -3901,41 +3877,41 @@
         <v>907</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
         <v>209</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="G46" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -3943,16 +3919,16 @@
         <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
@@ -3960,16 +3936,16 @@
         <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -3977,84 +3953,84 @@
         <v>168</v>
       </c>
       <c r="E49" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
         <v>213</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" t="s">
         <v>210</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
         <v>214</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="G53" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -4062,16 +4038,16 @@
         <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -4079,84 +4055,84 @@
         <v>168</v>
       </c>
       <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" t="s">
         <v>220</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -4164,50 +4140,50 @@
         <v>168</v>
       </c>
       <c r="E60" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" t="s">
         <v>219</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="G61" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B61" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>48</v>
       </c>
@@ -4224,43 +4200,43 @@
         <v>909</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
         <v>168</v>
@@ -4275,24 +4251,24 @@
         <v>909</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
@@ -4300,16 +4276,16 @@
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
@@ -4317,33 +4293,33 @@
         <v>168</v>
       </c>
       <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" t="s">
         <v>229</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70" t="s">
-        <v>230</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -4351,33 +4327,33 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" t="s">
         <v>231</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -4385,67 +4361,67 @@
         <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
         <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
         <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>57</v>
       </c>
@@ -4462,24 +4438,24 @@
         <v>909</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
         <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>58</v>
       </c>
@@ -4496,126 +4472,126 @@
         <v>907</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B80" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
         <v>237</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B81" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" t="s">
         <v>238</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" t="s">
         <v>239</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" t="s">
         <v>240</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B84" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" t="s">
         <v>241</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" t="s">
         <v>242</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="G86" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
@@ -4623,35 +4599,35 @@
         <v>168</v>
       </c>
       <c r="E87" t="s">
+        <v>243</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" t="s">
         <v>244</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" t="s">
-        <v>245</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B89" t="s">
         <v>168</v>
@@ -4666,109 +4642,109 @@
         <v>907</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="E90" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B90" t="s">
-        <v>168</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" t="s">
         <v>246</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="G91" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" t="s">
         <v>247</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B92" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" t="s">
         <v>248</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B93" t="s">
-        <v>168</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E94" t="s">
         <v>249</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:7">
+      <c r="A95" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B94" t="s">
-        <v>168</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" t="s">
         <v>250</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>73</v>
       </c>
@@ -4776,16 +4752,16 @@
         <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>73</v>
       </c>
@@ -4793,16 +4769,16 @@
         <v>168</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>73</v>
       </c>
@@ -4810,16 +4786,16 @@
         <v>168</v>
       </c>
       <c r="E98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>73</v>
       </c>
@@ -4827,16 +4803,16 @@
         <v>168</v>
       </c>
       <c r="E99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>73</v>
       </c>
@@ -4844,16 +4820,16 @@
         <v>168</v>
       </c>
       <c r="E100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>73</v>
       </c>
@@ -4861,16 +4837,16 @@
         <v>168</v>
       </c>
       <c r="E101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>73</v>
       </c>
@@ -4878,16 +4854,16 @@
         <v>168</v>
       </c>
       <c r="E102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>73</v>
       </c>
@@ -4895,84 +4871,84 @@
         <v>168</v>
       </c>
       <c r="E103" t="s">
+        <v>258</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="E104" t="s">
         <v>259</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:7">
+      <c r="A105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B104" t="s">
-        <v>168</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" t="s">
         <v>260</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="G105" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B105" t="s">
-        <v>168</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" t="s">
-        <v>168</v>
-      </c>
-      <c r="E106" t="s">
-        <v>262</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="G106" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
         <v>168</v>
       </c>
       <c r="E107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>76</v>
       </c>
@@ -4980,271 +4956,271 @@
         <v>168</v>
       </c>
       <c r="E108" t="s">
+        <v>262</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" t="s">
+        <v>263</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" t="s">
         <v>264</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="G110" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B109" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" t="s">
         <v>265</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B110" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" t="s">
         <v>266</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="G112" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="B113" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" t="s">
         <v>267</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="B114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" t="s">
         <v>268</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="G114" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B113" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" t="s">
         <v>269</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="G115" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B114" t="s">
-        <v>168</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" t="s">
         <v>270</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="G116" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B115" t="s">
-        <v>168</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" t="s">
         <v>271</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="G117" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B116" t="s">
-        <v>168</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" t="s">
         <v>272</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="G118" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B117" t="s">
-        <v>168</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="B119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" t="s">
         <v>273</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B118" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="B120" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" t="s">
         <v>274</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="G120" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B119" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" t="s">
         <v>275</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    <row r="122" spans="1:7">
+      <c r="A122" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B120" t="s">
-        <v>168</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="B122" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" t="s">
         <v>276</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="G122" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B121" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="B123" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" t="s">
         <v>277</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B122" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" t="s">
-        <v>278</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B123" t="s">
-        <v>168</v>
-      </c>
-      <c r="E123" t="s">
-        <v>279</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="G123" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>88</v>
       </c>
@@ -5252,16 +5228,16 @@
         <v>168</v>
       </c>
       <c r="E124" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>88</v>
       </c>
@@ -5269,16 +5245,16 @@
         <v>168</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>88</v>
       </c>
@@ -5286,16 +5262,16 @@
         <v>168</v>
       </c>
       <c r="E126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>88</v>
       </c>
@@ -5303,16 +5279,16 @@
         <v>168</v>
       </c>
       <c r="E127" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>88</v>
       </c>
@@ -5320,288 +5296,288 @@
         <v>168</v>
       </c>
       <c r="E128" t="s">
+        <v>282</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" t="s">
         <v>284</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B129" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" t="s">
-        <v>285</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B130" t="s">
-        <v>168</v>
-      </c>
-      <c r="E130" t="s">
-        <v>286</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B131" t="s">
         <v>168</v>
       </c>
       <c r="E131" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" t="s">
         <v>168</v>
       </c>
       <c r="E132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
         <v>168</v>
       </c>
       <c r="E133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B134" t="s">
         <v>168</v>
       </c>
       <c r="E134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135" t="s">
+        <v>168</v>
+      </c>
+      <c r="E135" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" t="s">
+        <v>288</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B135" t="s">
-        <v>168</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="B137" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" t="s">
         <v>289</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="G137" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B136" t="s">
-        <v>168</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" t="s">
         <v>290</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B137" t="s">
-        <v>168</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="B139" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" t="s">
         <v>291</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="G139" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B138" t="s">
-        <v>168</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" t="s">
         <v>292</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="G140" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B139" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="B141" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" t="s">
         <v>293</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="G141" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B140" t="s">
-        <v>168</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="B142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
         <v>293</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="G142" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B141" t="s">
-        <v>168</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="B143" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" t="s">
         <v>294</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+    <row r="144" spans="1:7">
+      <c r="A144" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B142" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" t="s">
         <v>295</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" t="s">
-        <v>168</v>
-      </c>
-      <c r="E143" t="s">
-        <v>296</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" t="s">
-        <v>168</v>
-      </c>
-      <c r="E144" t="s">
-        <v>297</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="G144" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>101</v>
       </c>
@@ -5609,152 +5585,152 @@
         <v>168</v>
       </c>
       <c r="E145" t="s">
+        <v>296</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B146" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" t="s">
+        <v>297</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" t="s">
+        <v>168</v>
+      </c>
+      <c r="E147" t="s">
         <v>298</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+    <row r="148" spans="1:7">
+      <c r="A148" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B146" t="s">
-        <v>168</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="B148" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" t="s">
         <v>299</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+      <c r="G148" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B147" t="s">
-        <v>168</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="B149" t="s">
+        <v>168</v>
+      </c>
+      <c r="E149" t="s">
         <v>300</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="G149" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B148" t="s">
-        <v>168</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
+      <c r="E150" t="s">
         <v>301</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="G150" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B149" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="B151" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" t="s">
         <v>302</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="G151" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B150" t="s">
-        <v>168</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152" t="s">
         <v>303</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="G152" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B151" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="B153" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" t="s">
         <v>303</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B152" t="s">
-        <v>168</v>
-      </c>
-      <c r="E152" t="s">
-        <v>304</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B153" t="s">
-        <v>168</v>
-      </c>
-      <c r="E153" t="s">
-        <v>305</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="G153" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>106</v>
       </c>
@@ -5762,69 +5738,69 @@
         <v>168</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="E155" t="s">
+        <v>305</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" t="s">
         <v>306</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+      <c r="G156" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B155" t="s">
-        <v>168</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" t="s">
         <v>307</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+      <c r="G157" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B156" t="s">
-        <v>168</v>
-      </c>
-      <c r="E156" t="s">
-        <v>308</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B157" t="s">
-        <v>168</v>
-      </c>
-      <c r="E157" t="s">
-        <v>309</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="B158" t="s">
         <v>168</v>
@@ -5839,92 +5815,92 @@
         <v>907</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" t="s">
+        <v>309</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" t="s">
+        <v>168</v>
+      </c>
+      <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B159" t="s">
-        <v>168</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="E161" t="s">
         <v>308</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+      <c r="G161" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B160" t="s">
-        <v>168</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="B162" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" t="s">
         <v>310</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G160" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+      <c r="G162" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B161" t="s">
-        <v>168</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="E163" t="s">
         <v>311</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G163" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B162" t="s">
-        <v>168</v>
-      </c>
-      <c r="E162" t="s">
-        <v>312</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B163" t="s">
-        <v>168</v>
-      </c>
-      <c r="E163" t="s">
-        <v>313</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>112</v>
       </c>
@@ -5932,50 +5908,50 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="E165" t="s">
+        <v>313</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
+      <c r="E166" t="s">
         <v>314</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G164" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B165" t="s">
-        <v>168</v>
-      </c>
-      <c r="E165" t="s">
-        <v>315</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B166" t="s">
-        <v>168</v>
-      </c>
-      <c r="E166" t="s">
-        <v>316</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="G166" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
         <v>113</v>
       </c>
@@ -5983,203 +5959,203 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
+        <v>315</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="E168" t="s">
+        <v>316</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169" t="s">
+        <v>168</v>
+      </c>
+      <c r="E169" t="s">
         <v>317</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+      <c r="G169" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B168" t="s">
-        <v>168</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" t="s">
         <v>318</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="G168" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+      <c r="G170" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B169" t="s">
-        <v>168</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="B171" t="s">
+        <v>168</v>
+      </c>
+      <c r="E171" t="s">
         <v>319</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="G169" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+      <c r="G171" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B170" t="s">
-        <v>168</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="B172" t="s">
+        <v>168</v>
+      </c>
+      <c r="E172" t="s">
         <v>320</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+      <c r="G172" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B171" t="s">
-        <v>168</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="B173" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" t="s">
         <v>321</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G171" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+      <c r="G173" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B172" t="s">
-        <v>168</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="B174" t="s">
+        <v>168</v>
+      </c>
+      <c r="E174" t="s">
         <v>322</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B173" t="s">
-        <v>168</v>
-      </c>
-      <c r="E173" t="s">
-        <v>323</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B174" t="s">
-        <v>168</v>
-      </c>
-      <c r="E174" t="s">
-        <v>324</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" t="s">
+        <v>323</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B175" t="s">
-        <v>168</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="B176" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" t="s">
+        <v>324</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" t="s">
         <v>186</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+      <c r="G177" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B176" t="s">
-        <v>168</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="B178" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" t="s">
         <v>325</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B177" t="s">
-        <v>168</v>
-      </c>
-      <c r="E177" t="s">
-        <v>326</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B178" t="s">
-        <v>168</v>
-      </c>
-      <c r="E178" t="s">
-        <v>327</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>121</v>
       </c>
@@ -6187,50 +6163,50 @@
         <v>168</v>
       </c>
       <c r="E179" t="s">
+        <v>326</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B180" t="s">
+        <v>168</v>
+      </c>
+      <c r="E180" t="s">
+        <v>327</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B181" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="G179" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B180" t="s">
-        <v>168</v>
-      </c>
-      <c r="E180" t="s">
-        <v>329</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B181" t="s">
-        <v>168</v>
-      </c>
-      <c r="E181" t="s">
-        <v>330</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="G181" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>122</v>
       </c>
@@ -6238,16 +6214,16 @@
         <v>168</v>
       </c>
       <c r="E182" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>122</v>
       </c>
@@ -6255,16 +6231,16 @@
         <v>168</v>
       </c>
       <c r="E183" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>122</v>
       </c>
@@ -6272,16 +6248,16 @@
         <v>168</v>
       </c>
       <c r="E184" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>122</v>
       </c>
@@ -6289,16 +6265,16 @@
         <v>168</v>
       </c>
       <c r="E185" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>122</v>
       </c>
@@ -6306,16 +6282,16 @@
         <v>168</v>
       </c>
       <c r="E186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>122</v>
       </c>
@@ -6323,152 +6299,152 @@
         <v>168</v>
       </c>
       <c r="E187" t="s">
+        <v>334</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B188" t="s">
+        <v>168</v>
+      </c>
+      <c r="E188" t="s">
+        <v>335</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B189" t="s">
+        <v>168</v>
+      </c>
+      <c r="E189" t="s">
         <v>336</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B188" t="s">
-        <v>168</v>
-      </c>
-      <c r="E188" t="s">
-        <v>337</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B189" t="s">
-        <v>168</v>
-      </c>
-      <c r="E189" t="s">
-        <v>338</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B190" t="s">
+        <v>168</v>
+      </c>
+      <c r="E190" t="s">
+        <v>337</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B191" t="s">
+        <v>168</v>
+      </c>
+      <c r="E191" t="s">
+        <v>338</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B190" t="s">
-        <v>168</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="B192" t="s">
+        <v>168</v>
+      </c>
+      <c r="E192" t="s">
         <v>339</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F192" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+      <c r="G192" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B191" t="s">
-        <v>168</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="B193" t="s">
+        <v>168</v>
+      </c>
+      <c r="E193" t="s">
         <v>340</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+      <c r="G193" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B192" t="s">
-        <v>168</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="B194" t="s">
+        <v>168</v>
+      </c>
+      <c r="E194" t="s">
         <v>246</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="F194" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="G192" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+      <c r="G194" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B193" t="s">
-        <v>168</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="B195" t="s">
+        <v>168</v>
+      </c>
+      <c r="E195" t="s">
         <v>341</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="F195" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B194" t="s">
-        <v>168</v>
-      </c>
-      <c r="E194" t="s">
-        <v>342</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B195" t="s">
-        <v>168</v>
-      </c>
-      <c r="E195" t="s">
-        <v>343</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="G195" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>127</v>
       </c>
@@ -6476,84 +6452,84 @@
         <v>168</v>
       </c>
       <c r="E196" t="s">
+        <v>342</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B197" t="s">
+        <v>168</v>
+      </c>
+      <c r="E197" t="s">
+        <v>343</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B198" t="s">
+        <v>168</v>
+      </c>
+      <c r="E198" t="s">
         <v>344</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="G196" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+      <c r="G198" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B197" t="s">
-        <v>168</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="B199" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" t="s">
         <v>345</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="F199" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G197" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+      <c r="G199" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B198" t="s">
-        <v>168</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="B200" t="s">
+        <v>168</v>
+      </c>
+      <c r="E200" t="s">
         <v>345</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G198" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B199" t="s">
-        <v>168</v>
-      </c>
-      <c r="E199" t="s">
-        <v>346</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B200" t="s">
-        <v>168</v>
-      </c>
-      <c r="E200" t="s">
-        <v>347</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>716</v>
-      </c>
       <c r="G200" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>129</v>
       </c>
@@ -6561,16 +6537,16 @@
         <v>168</v>
       </c>
       <c r="E201" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>129</v>
       </c>
@@ -6578,16 +6554,16 @@
         <v>168</v>
       </c>
       <c r="E202" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>129</v>
       </c>
@@ -6595,16 +6571,16 @@
         <v>168</v>
       </c>
       <c r="E203" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>129</v>
       </c>
@@ -6612,16 +6588,16 @@
         <v>168</v>
       </c>
       <c r="E204" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>129</v>
       </c>
@@ -6629,16 +6605,16 @@
         <v>168</v>
       </c>
       <c r="E205" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>129</v>
       </c>
@@ -6646,16 +6622,16 @@
         <v>168</v>
       </c>
       <c r="E206" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>129</v>
       </c>
@@ -6663,118 +6639,118 @@
         <v>168</v>
       </c>
       <c r="E207" t="s">
+        <v>352</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B208" t="s">
+        <v>168</v>
+      </c>
+      <c r="E208" t="s">
+        <v>353</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B209" t="s">
+        <v>168</v>
+      </c>
+      <c r="E209" t="s">
         <v>354</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+      <c r="G209" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B208" t="s">
-        <v>168</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="B210" t="s">
+        <v>168</v>
+      </c>
+      <c r="E210" t="s">
         <v>355</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="G208" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+      <c r="G210" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B209" t="s">
-        <v>168</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="B211" t="s">
+        <v>168</v>
+      </c>
+      <c r="E211" t="s">
         <v>356</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F211" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="G209" s="2" t="s">
+      <c r="G211" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+    <row r="212" spans="1:7">
+      <c r="A212" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B210" t="s">
-        <v>168</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="B212" t="s">
+        <v>168</v>
+      </c>
+      <c r="E212" t="s">
         <v>357</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F212" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+      <c r="G212" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B211" t="s">
-        <v>168</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="B213" t="s">
+        <v>168</v>
+      </c>
+      <c r="E213" t="s">
         <v>358</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="G211" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B212" t="s">
-        <v>168</v>
-      </c>
-      <c r="E212" t="s">
-        <v>359</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B213" t="s">
-        <v>168</v>
-      </c>
-      <c r="E213" t="s">
-        <v>360</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>729</v>
-      </c>
       <c r="G213" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" s="2" t="s">
         <v>133</v>
       </c>
@@ -6782,16 +6758,16 @@
         <v>168</v>
       </c>
       <c r="E214" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>133</v>
       </c>
@@ -6799,16 +6775,16 @@
         <v>168</v>
       </c>
       <c r="E215" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" s="2" t="s">
         <v>133</v>
       </c>
@@ -6816,16 +6792,16 @@
         <v>168</v>
       </c>
       <c r="E216" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>133</v>
       </c>
@@ -6833,16 +6809,16 @@
         <v>168</v>
       </c>
       <c r="E217" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>133</v>
       </c>
@@ -6850,16 +6826,16 @@
         <v>168</v>
       </c>
       <c r="E218" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>133</v>
       </c>
@@ -6867,16 +6843,16 @@
         <v>168</v>
       </c>
       <c r="E219" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
         <v>133</v>
       </c>
@@ -6884,16 +6860,16 @@
         <v>168</v>
       </c>
       <c r="E220" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>133</v>
       </c>
@@ -6901,16 +6877,16 @@
         <v>168</v>
       </c>
       <c r="E221" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" s="2" t="s">
         <v>133</v>
       </c>
@@ -6918,16 +6894,16 @@
         <v>168</v>
       </c>
       <c r="E222" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>133</v>
       </c>
@@ -6935,16 +6911,16 @@
         <v>168</v>
       </c>
       <c r="E223" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>133</v>
       </c>
@@ -6952,16 +6928,16 @@
         <v>168</v>
       </c>
       <c r="E224" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
         <v>133</v>
       </c>
@@ -6969,16 +6945,16 @@
         <v>168</v>
       </c>
       <c r="E225" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>133</v>
       </c>
@@ -6986,16 +6962,16 @@
         <v>168</v>
       </c>
       <c r="E226" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
         <v>133</v>
       </c>
@@ -7003,16 +6979,16 @@
         <v>168</v>
       </c>
       <c r="E227" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
         <v>133</v>
       </c>
@@ -7020,16 +6996,16 @@
         <v>168</v>
       </c>
       <c r="E228" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>133</v>
       </c>
@@ -7037,16 +7013,16 @@
         <v>168</v>
       </c>
       <c r="E229" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
         <v>133</v>
       </c>
@@ -7054,16 +7030,16 @@
         <v>168</v>
       </c>
       <c r="E230" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
         <v>133</v>
       </c>
@@ -7071,16 +7047,16 @@
         <v>168</v>
       </c>
       <c r="E231" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
         <v>133</v>
       </c>
@@ -7088,16 +7064,16 @@
         <v>168</v>
       </c>
       <c r="E232" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
         <v>133</v>
       </c>
@@ -7105,16 +7081,16 @@
         <v>168</v>
       </c>
       <c r="E233" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
         <v>133</v>
       </c>
@@ -7122,16 +7098,16 @@
         <v>168</v>
       </c>
       <c r="E234" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" s="2" t="s">
         <v>133</v>
       </c>
@@ -7139,16 +7115,16 @@
         <v>168</v>
       </c>
       <c r="E235" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
         <v>133</v>
       </c>
@@ -7156,16 +7132,16 @@
         <v>168</v>
       </c>
       <c r="E236" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
         <v>133</v>
       </c>
@@ -7173,16 +7149,16 @@
         <v>168</v>
       </c>
       <c r="E237" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
         <v>133</v>
       </c>
@@ -7190,16 +7166,16 @@
         <v>168</v>
       </c>
       <c r="E238" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
         <v>133</v>
       </c>
@@ -7207,16 +7183,16 @@
         <v>168</v>
       </c>
       <c r="E239" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
         <v>133</v>
       </c>
@@ -7224,16 +7200,16 @@
         <v>168</v>
       </c>
       <c r="E240" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" s="2" t="s">
         <v>133</v>
       </c>
@@ -7241,16 +7217,16 @@
         <v>168</v>
       </c>
       <c r="E241" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" s="2" t="s">
         <v>133</v>
       </c>
@@ -7258,16 +7234,16 @@
         <v>168</v>
       </c>
       <c r="E242" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" s="2" t="s">
         <v>133</v>
       </c>
@@ -7275,16 +7251,16 @@
         <v>168</v>
       </c>
       <c r="E243" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>133</v>
       </c>
@@ -7292,16 +7268,16 @@
         <v>168</v>
       </c>
       <c r="E244" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" s="2" t="s">
         <v>133</v>
       </c>
@@ -7309,16 +7285,16 @@
         <v>168</v>
       </c>
       <c r="E245" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" s="2" t="s">
         <v>133</v>
       </c>
@@ -7326,16 +7302,16 @@
         <v>168</v>
       </c>
       <c r="E246" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>133</v>
       </c>
@@ -7343,16 +7319,16 @@
         <v>168</v>
       </c>
       <c r="E247" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" s="2" t="s">
         <v>133</v>
       </c>
@@ -7360,16 +7336,16 @@
         <v>168</v>
       </c>
       <c r="E248" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" s="2" t="s">
         <v>133</v>
       </c>
@@ -7377,16 +7353,16 @@
         <v>168</v>
       </c>
       <c r="E249" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" s="2" t="s">
         <v>133</v>
       </c>
@@ -7394,16 +7370,16 @@
         <v>168</v>
       </c>
       <c r="E250" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>133</v>
       </c>
@@ -7411,16 +7387,16 @@
         <v>168</v>
       </c>
       <c r="E251" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" s="2" t="s">
         <v>133</v>
       </c>
@@ -7428,16 +7404,16 @@
         <v>168</v>
       </c>
       <c r="E252" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" s="2" t="s">
         <v>133</v>
       </c>
@@ -7445,16 +7421,16 @@
         <v>168</v>
       </c>
       <c r="E253" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" s="2" t="s">
         <v>133</v>
       </c>
@@ -7462,16 +7438,16 @@
         <v>168</v>
       </c>
       <c r="E254" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" s="2" t="s">
         <v>133</v>
       </c>
@@ -7479,16 +7455,16 @@
         <v>168</v>
       </c>
       <c r="E255" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" s="2" t="s">
         <v>133</v>
       </c>
@@ -7496,16 +7472,16 @@
         <v>168</v>
       </c>
       <c r="E256" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" s="2" t="s">
         <v>133</v>
       </c>
@@ -7513,16 +7489,16 @@
         <v>168</v>
       </c>
       <c r="E257" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" s="2" t="s">
         <v>133</v>
       </c>
@@ -7530,16 +7506,16 @@
         <v>168</v>
       </c>
       <c r="E258" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" s="2" t="s">
         <v>133</v>
       </c>
@@ -7547,16 +7523,16 @@
         <v>168</v>
       </c>
       <c r="E259" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" s="2" t="s">
         <v>133</v>
       </c>
@@ -7564,16 +7540,16 @@
         <v>168</v>
       </c>
       <c r="E260" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" s="2" t="s">
         <v>133</v>
       </c>
@@ -7581,16 +7557,16 @@
         <v>168</v>
       </c>
       <c r="E261" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262" s="2" t="s">
         <v>133</v>
       </c>
@@ -7598,16 +7574,16 @@
         <v>168</v>
       </c>
       <c r="E262" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>133</v>
       </c>
@@ -7615,16 +7591,16 @@
         <v>168</v>
       </c>
       <c r="E263" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264" s="2" t="s">
         <v>133</v>
       </c>
@@ -7632,16 +7608,16 @@
         <v>168</v>
       </c>
       <c r="E264" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265" s="2" t="s">
         <v>133</v>
       </c>
@@ -7649,16 +7625,16 @@
         <v>168</v>
       </c>
       <c r="E265" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266" s="2" t="s">
         <v>133</v>
       </c>
@@ -7666,16 +7642,16 @@
         <v>168</v>
       </c>
       <c r="E266" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267" s="2" t="s">
         <v>133</v>
       </c>
@@ -7683,16 +7659,16 @@
         <v>168</v>
       </c>
       <c r="E267" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268" s="2" t="s">
         <v>133</v>
       </c>
@@ -7700,16 +7676,16 @@
         <v>168</v>
       </c>
       <c r="E268" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269" s="2" t="s">
         <v>133</v>
       </c>
@@ -7717,16 +7693,16 @@
         <v>168</v>
       </c>
       <c r="E269" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270" s="2" t="s">
         <v>133</v>
       </c>
@@ -7734,16 +7710,16 @@
         <v>168</v>
       </c>
       <c r="E270" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271" s="2" t="s">
         <v>133</v>
       </c>
@@ -7751,16 +7727,16 @@
         <v>168</v>
       </c>
       <c r="E271" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272" s="2" t="s">
         <v>133</v>
       </c>
@@ -7768,16 +7744,16 @@
         <v>168</v>
       </c>
       <c r="E272" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273" s="2" t="s">
         <v>133</v>
       </c>
@@ -7785,16 +7761,16 @@
         <v>168</v>
       </c>
       <c r="E273" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274" s="2" t="s">
         <v>133</v>
       </c>
@@ -7802,16 +7778,16 @@
         <v>168</v>
       </c>
       <c r="E274" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275" s="2" t="s">
         <v>133</v>
       </c>
@@ -7819,16 +7795,16 @@
         <v>168</v>
       </c>
       <c r="E275" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276" s="2" t="s">
         <v>133</v>
       </c>
@@ -7836,16 +7812,16 @@
         <v>168</v>
       </c>
       <c r="E276" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277" s="2" t="s">
         <v>133</v>
       </c>
@@ -7853,16 +7829,16 @@
         <v>168</v>
       </c>
       <c r="E277" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278" s="2" t="s">
         <v>133</v>
       </c>
@@ -7870,16 +7846,16 @@
         <v>168</v>
       </c>
       <c r="E278" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279" s="2" t="s">
         <v>133</v>
       </c>
@@ -7887,16 +7863,16 @@
         <v>168</v>
       </c>
       <c r="E279" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280" s="2" t="s">
         <v>133</v>
       </c>
@@ -7904,16 +7880,16 @@
         <v>168</v>
       </c>
       <c r="E280" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281" s="2" t="s">
         <v>133</v>
       </c>
@@ -7921,16 +7897,16 @@
         <v>168</v>
       </c>
       <c r="E281" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282" s="2" t="s">
         <v>133</v>
       </c>
@@ -7938,16 +7914,16 @@
         <v>168</v>
       </c>
       <c r="E282" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283" s="2" t="s">
         <v>133</v>
       </c>
@@ -7955,16 +7931,16 @@
         <v>168</v>
       </c>
       <c r="E283" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284" s="2" t="s">
         <v>133</v>
       </c>
@@ -7972,16 +7948,16 @@
         <v>168</v>
       </c>
       <c r="E284" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285" s="2" t="s">
         <v>133</v>
       </c>
@@ -7989,16 +7965,16 @@
         <v>168</v>
       </c>
       <c r="E285" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286" s="2" t="s">
         <v>133</v>
       </c>
@@ -8006,16 +7982,16 @@
         <v>168</v>
       </c>
       <c r="E286" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287" s="2" t="s">
         <v>133</v>
       </c>
@@ -8023,16 +7999,16 @@
         <v>168</v>
       </c>
       <c r="E287" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288" s="2" t="s">
         <v>133</v>
       </c>
@@ -8040,16 +8016,16 @@
         <v>168</v>
       </c>
       <c r="E288" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
         <v>133</v>
       </c>
@@ -8057,16 +8033,16 @@
         <v>168</v>
       </c>
       <c r="E289" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
         <v>133</v>
       </c>
@@ -8074,16 +8050,16 @@
         <v>168</v>
       </c>
       <c r="E290" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291" s="2" t="s">
         <v>133</v>
       </c>
@@ -8091,16 +8067,16 @@
         <v>168</v>
       </c>
       <c r="E291" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
         <v>133</v>
       </c>
@@ -8108,16 +8084,16 @@
         <v>168</v>
       </c>
       <c r="E292" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293" s="2" t="s">
         <v>133</v>
       </c>
@@ -8125,16 +8101,16 @@
         <v>168</v>
       </c>
       <c r="E293" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294" s="2" t="s">
         <v>133</v>
       </c>
@@ -8142,16 +8118,16 @@
         <v>168</v>
       </c>
       <c r="E294" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295" s="2" t="s">
         <v>133</v>
       </c>
@@ -8159,16 +8135,16 @@
         <v>168</v>
       </c>
       <c r="E295" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
         <v>133</v>
       </c>
@@ -8176,16 +8152,16 @@
         <v>168</v>
       </c>
       <c r="E296" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297" s="2" t="s">
         <v>133</v>
       </c>
@@ -8193,16 +8169,16 @@
         <v>168</v>
       </c>
       <c r="E297" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7">
       <c r="A298" s="2" t="s">
         <v>133</v>
       </c>
@@ -8210,16 +8186,16 @@
         <v>168</v>
       </c>
       <c r="E298" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7">
       <c r="A299" s="2" t="s">
         <v>133</v>
       </c>
@@ -8227,169 +8203,169 @@
         <v>168</v>
       </c>
       <c r="E299" t="s">
+        <v>444</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B300" t="s">
+        <v>168</v>
+      </c>
+      <c r="E300" t="s">
+        <v>445</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" t="s">
+        <v>168</v>
+      </c>
+      <c r="E301" t="s">
         <v>446</v>
       </c>
-      <c r="F299" s="2" t="s">
+      <c r="F301" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="G299" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
+      <c r="G301" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B300" t="s">
-        <v>168</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="B302" t="s">
+        <v>168</v>
+      </c>
+      <c r="E302" t="s">
         <v>447</v>
       </c>
-      <c r="F300" s="2" t="s">
+      <c r="F302" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="G300" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="2" t="s">
+      <c r="G302" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B301" t="s">
-        <v>168</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="B303" t="s">
+        <v>168</v>
+      </c>
+      <c r="E303" t="s">
         <v>448</v>
       </c>
-      <c r="F301" s="2" t="s">
+      <c r="F303" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G301" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" s="2" t="s">
+      <c r="G303" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B302" t="s">
-        <v>168</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="B304" t="s">
+        <v>168</v>
+      </c>
+      <c r="E304" t="s">
         <v>449</v>
       </c>
-      <c r="F302" s="2" t="s">
+      <c r="F304" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="G302" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
+      <c r="G304" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B303" t="s">
-        <v>168</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="B305" t="s">
+        <v>168</v>
+      </c>
+      <c r="E305" t="s">
         <v>450</v>
       </c>
-      <c r="F303" s="2" t="s">
+      <c r="F305" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="G303" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
+      <c r="G305" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B304" t="s">
-        <v>168</v>
-      </c>
-      <c r="E304" t="s">
+      <c r="B306" t="s">
+        <v>168</v>
+      </c>
+      <c r="E306" t="s">
         <v>451</v>
       </c>
-      <c r="F304" s="2" t="s">
+      <c r="F306" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="G304" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
+      <c r="G306" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B305" t="s">
-        <v>168</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="B307" t="s">
+        <v>168</v>
+      </c>
+      <c r="E307" t="s">
         <v>338</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="F307" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="G305" s="2" t="s">
+      <c r="G307" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+    <row r="308" spans="1:7">
+      <c r="A308" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B306" t="s">
-        <v>168</v>
-      </c>
-      <c r="E306" t="s">
+      <c r="B308" t="s">
+        <v>168</v>
+      </c>
+      <c r="E308" t="s">
         <v>338</v>
       </c>
-      <c r="F306" s="2" t="s">
+      <c r="F308" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="G306" s="2" t="s">
+      <c r="G308" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B307" t="s">
-        <v>168</v>
-      </c>
-      <c r="E307" t="s">
-        <v>452</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B308" t="s">
-        <v>168</v>
-      </c>
-      <c r="E308" t="s">
-        <v>453</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7">
       <c r="A309" s="2" t="s">
         <v>139</v>
       </c>
@@ -8397,101 +8373,101 @@
         <v>168</v>
       </c>
       <c r="E309" t="s">
+        <v>452</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B310" t="s">
+        <v>168</v>
+      </c>
+      <c r="E310" t="s">
+        <v>453</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B311" t="s">
+        <v>168</v>
+      </c>
+      <c r="E311" t="s">
         <v>454</v>
       </c>
-      <c r="F309" s="2" t="s">
+      <c r="F311" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="G309" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
+      <c r="G311" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B310" t="s">
-        <v>168</v>
-      </c>
-      <c r="E310" t="s">
+      <c r="B312" t="s">
+        <v>168</v>
+      </c>
+      <c r="E312" t="s">
         <v>455</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="F312" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="G310" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
+      <c r="G312" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B311" t="s">
-        <v>168</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="B313" t="s">
+        <v>168</v>
+      </c>
+      <c r="E313" t="s">
         <v>456</v>
       </c>
-      <c r="F311" s="2" t="s">
+      <c r="F313" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="G311" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+      <c r="G313" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B312" t="s">
-        <v>168</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="B314" t="s">
+        <v>168</v>
+      </c>
+      <c r="E314" t="s">
         <v>457</v>
       </c>
-      <c r="F312" s="2" t="s">
+      <c r="F314" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="G312" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B313" t="s">
-        <v>168</v>
-      </c>
-      <c r="E313" t="s">
-        <v>458</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B314" t="s">
-        <v>168</v>
-      </c>
-      <c r="E314" t="s">
-        <v>459</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>828</v>
-      </c>
       <c r="G314" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7">
       <c r="A315" s="2" t="s">
         <v>143</v>
       </c>
@@ -8499,16 +8475,16 @@
         <v>168</v>
       </c>
       <c r="E315" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7">
       <c r="A316" s="2" t="s">
         <v>143</v>
       </c>
@@ -8516,16 +8492,16 @@
         <v>168</v>
       </c>
       <c r="E316" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7">
       <c r="A317" s="2" t="s">
         <v>143</v>
       </c>
@@ -8533,16 +8509,16 @@
         <v>168</v>
       </c>
       <c r="E317" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7">
       <c r="A318" s="2" t="s">
         <v>143</v>
       </c>
@@ -8550,16 +8526,16 @@
         <v>168</v>
       </c>
       <c r="E318" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7">
       <c r="A319" s="2" t="s">
         <v>143</v>
       </c>
@@ -8567,16 +8543,16 @@
         <v>168</v>
       </c>
       <c r="E319" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7">
       <c r="A320" s="2" t="s">
         <v>143</v>
       </c>
@@ -8584,16 +8560,16 @@
         <v>168</v>
       </c>
       <c r="E320" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7">
       <c r="A321" s="2" t="s">
         <v>143</v>
       </c>
@@ -8601,16 +8577,16 @@
         <v>168</v>
       </c>
       <c r="E321" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7">
       <c r="A322" s="2" t="s">
         <v>143</v>
       </c>
@@ -8618,16 +8594,16 @@
         <v>168</v>
       </c>
       <c r="E322" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7">
       <c r="A323" s="2" t="s">
         <v>143</v>
       </c>
@@ -8635,16 +8611,16 @@
         <v>168</v>
       </c>
       <c r="E323" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7">
       <c r="A324" s="2" t="s">
         <v>143</v>
       </c>
@@ -8652,16 +8628,16 @@
         <v>168</v>
       </c>
       <c r="E324" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7">
       <c r="A325" s="2" t="s">
         <v>143</v>
       </c>
@@ -8669,16 +8645,16 @@
         <v>168</v>
       </c>
       <c r="E325" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7">
       <c r="A326" s="2" t="s">
         <v>143</v>
       </c>
@@ -8686,16 +8662,16 @@
         <v>168</v>
       </c>
       <c r="E326" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7">
       <c r="A327" s="2" t="s">
         <v>143</v>
       </c>
@@ -8703,16 +8679,16 @@
         <v>168</v>
       </c>
       <c r="E327" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7">
       <c r="A328" s="2" t="s">
         <v>143</v>
       </c>
@@ -8720,135 +8696,135 @@
         <v>168</v>
       </c>
       <c r="E328" t="s">
+        <v>471</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B329" t="s">
+        <v>168</v>
+      </c>
+      <c r="E329" t="s">
+        <v>472</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B330" t="s">
+        <v>168</v>
+      </c>
+      <c r="E330" t="s">
         <v>473</v>
       </c>
-      <c r="F328" s="2" t="s">
+      <c r="F330" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="G328" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
+      <c r="G330" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B329" t="s">
-        <v>168</v>
-      </c>
-      <c r="E329" t="s">
+      <c r="B331" t="s">
+        <v>168</v>
+      </c>
+      <c r="E331" t="s">
         <v>474</v>
       </c>
-      <c r="F329" s="2" t="s">
+      <c r="F331" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="G329" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
+      <c r="G331" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B330" t="s">
-        <v>168</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="B332" t="s">
+        <v>168</v>
+      </c>
+      <c r="E332" t="s">
         <v>475</v>
       </c>
-      <c r="F330" s="2" t="s">
+      <c r="F332" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="G330" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+      <c r="G332" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B331" t="s">
-        <v>168</v>
-      </c>
-      <c r="E331" t="s">
+      <c r="B333" t="s">
+        <v>168</v>
+      </c>
+      <c r="E333" t="s">
         <v>476</v>
       </c>
-      <c r="F331" s="2" t="s">
+      <c r="F333" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G331" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+      <c r="G333" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B332" t="s">
-        <v>168</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="B334" t="s">
+        <v>168</v>
+      </c>
+      <c r="E334" t="s">
         <v>477</v>
       </c>
-      <c r="F332" s="2" t="s">
+      <c r="F334" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="G332" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+      <c r="G334" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B333" t="s">
-        <v>168</v>
-      </c>
-      <c r="E333" t="s">
+      <c r="B335" t="s">
+        <v>168</v>
+      </c>
+      <c r="E335" t="s">
         <v>478</v>
       </c>
-      <c r="F333" s="2" t="s">
+      <c r="F335" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="G333" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B334" t="s">
-        <v>168</v>
-      </c>
-      <c r="E334" t="s">
-        <v>479</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B335" t="s">
-        <v>168</v>
-      </c>
-      <c r="E335" t="s">
-        <v>480</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>849</v>
-      </c>
       <c r="G335" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7">
       <c r="A336" s="2" t="s">
         <v>148</v>
       </c>
@@ -8856,16 +8832,16 @@
         <v>168</v>
       </c>
       <c r="E336" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7">
       <c r="A337" s="2" t="s">
         <v>148</v>
       </c>
@@ -8873,50 +8849,50 @@
         <v>168</v>
       </c>
       <c r="E337" t="s">
+        <v>480</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B338" t="s">
+        <v>168</v>
+      </c>
+      <c r="E338" t="s">
+        <v>481</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B339" t="s">
+        <v>168</v>
+      </c>
+      <c r="E339" t="s">
         <v>482</v>
       </c>
-      <c r="F337" s="2" t="s">
+      <c r="F339" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="G337" s="2" t="s">
+      <c r="G339" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B338" t="s">
-        <v>168</v>
-      </c>
-      <c r="E338" t="s">
-        <v>483</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B339" t="s">
-        <v>168</v>
-      </c>
-      <c r="E339" t="s">
-        <v>484</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7">
       <c r="A340" s="2" t="s">
         <v>149</v>
       </c>
@@ -8924,16 +8900,16 @@
         <v>168</v>
       </c>
       <c r="E340" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7">
       <c r="A341" s="2" t="s">
         <v>149</v>
       </c>
@@ -8941,16 +8917,16 @@
         <v>168</v>
       </c>
       <c r="E341" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7">
       <c r="A342" s="2" t="s">
         <v>149</v>
       </c>
@@ -8958,16 +8934,16 @@
         <v>168</v>
       </c>
       <c r="E342" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7">
       <c r="A343" s="2" t="s">
         <v>149</v>
       </c>
@@ -8975,16 +8951,16 @@
         <v>168</v>
       </c>
       <c r="E343" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7">
       <c r="A344" s="2" t="s">
         <v>149</v>
       </c>
@@ -8992,16 +8968,16 @@
         <v>168</v>
       </c>
       <c r="E344" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7">
       <c r="A345" s="2" t="s">
         <v>149</v>
       </c>
@@ -9009,16 +8985,16 @@
         <v>168</v>
       </c>
       <c r="E345" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7">
       <c r="A346" s="2" t="s">
         <v>149</v>
       </c>
@@ -9026,16 +9002,16 @@
         <v>168</v>
       </c>
       <c r="E346" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7">
       <c r="A347" s="2" t="s">
         <v>149</v>
       </c>
@@ -9043,16 +9019,16 @@
         <v>168</v>
       </c>
       <c r="E347" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G347" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7">
       <c r="A348" s="2" t="s">
         <v>149</v>
       </c>
@@ -9060,16 +9036,16 @@
         <v>168</v>
       </c>
       <c r="E348" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G348" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7">
       <c r="A349" s="2" t="s">
         <v>149</v>
       </c>
@@ -9077,16 +9053,16 @@
         <v>168</v>
       </c>
       <c r="E349" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7">
       <c r="A350" s="2" t="s">
         <v>149</v>
       </c>
@@ -9094,16 +9070,16 @@
         <v>168</v>
       </c>
       <c r="E350" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7">
       <c r="A351" s="2" t="s">
         <v>149</v>
       </c>
@@ -9111,16 +9087,16 @@
         <v>168</v>
       </c>
       <c r="E351" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7">
       <c r="A352" s="2" t="s">
         <v>149</v>
       </c>
@@ -9128,16 +9104,16 @@
         <v>168</v>
       </c>
       <c r="E352" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7">
       <c r="A353" s="2" t="s">
         <v>149</v>
       </c>
@@ -9145,16 +9121,16 @@
         <v>168</v>
       </c>
       <c r="E353" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7">
       <c r="A354" s="2" t="s">
         <v>149</v>
       </c>
@@ -9162,16 +9138,16 @@
         <v>168</v>
       </c>
       <c r="E354" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7">
       <c r="A355" s="2" t="s">
         <v>149</v>
       </c>
@@ -9179,16 +9155,16 @@
         <v>168</v>
       </c>
       <c r="E355" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7">
       <c r="A356" s="2" t="s">
         <v>149</v>
       </c>
@@ -9196,16 +9172,16 @@
         <v>168</v>
       </c>
       <c r="E356" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7">
       <c r="A357" s="2" t="s">
         <v>149</v>
       </c>
@@ -9213,16 +9189,16 @@
         <v>168</v>
       </c>
       <c r="E357" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7">
       <c r="A358" s="2" t="s">
         <v>149</v>
       </c>
@@ -9230,16 +9206,16 @@
         <v>168</v>
       </c>
       <c r="E358" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7">
       <c r="A359" s="2" t="s">
         <v>149</v>
       </c>
@@ -9247,16 +9223,16 @@
         <v>168</v>
       </c>
       <c r="E359" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7">
       <c r="A360" s="2" t="s">
         <v>149</v>
       </c>
@@ -9264,16 +9240,16 @@
         <v>168</v>
       </c>
       <c r="E360" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7">
       <c r="A361" s="2" t="s">
         <v>149</v>
       </c>
@@ -9281,16 +9257,16 @@
         <v>168</v>
       </c>
       <c r="E361" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G361" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7">
       <c r="A362" s="2" t="s">
         <v>149</v>
       </c>
@@ -9298,16 +9274,16 @@
         <v>168</v>
       </c>
       <c r="E362" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7">
       <c r="A363" s="2" t="s">
         <v>149</v>
       </c>
@@ -9315,135 +9291,135 @@
         <v>168</v>
       </c>
       <c r="E363" t="s">
+        <v>506</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B364" t="s">
+        <v>168</v>
+      </c>
+      <c r="E364" t="s">
+        <v>507</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B365" t="s">
+        <v>168</v>
+      </c>
+      <c r="E365" t="s">
         <v>508</v>
       </c>
-      <c r="F363" s="2" t="s">
+      <c r="F365" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="G363" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
+      <c r="G365" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B364" t="s">
-        <v>168</v>
-      </c>
-      <c r="E364" t="s">
+      <c r="B366" t="s">
+        <v>168</v>
+      </c>
+      <c r="E366" t="s">
         <v>509</v>
       </c>
-      <c r="F364" s="2" t="s">
+      <c r="F366" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="G364" s="2" t="s">
+      <c r="G366" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
+    <row r="367" spans="1:7">
+      <c r="A367" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B365" t="s">
-        <v>168</v>
-      </c>
-      <c r="E365" t="s">
+      <c r="B367" t="s">
+        <v>168</v>
+      </c>
+      <c r="E367" t="s">
         <v>510</v>
       </c>
-      <c r="F365" s="2" t="s">
+      <c r="F367" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="G365" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366" s="2" t="s">
+      <c r="G367" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B366" t="s">
-        <v>168</v>
-      </c>
-      <c r="E366" t="s">
+      <c r="B368" t="s">
+        <v>168</v>
+      </c>
+      <c r="E368" t="s">
         <v>511</v>
       </c>
-      <c r="F366" s="2" t="s">
+      <c r="F368" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="G366" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
+      <c r="G368" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B367" t="s">
-        <v>168</v>
-      </c>
-      <c r="E367" t="s">
+      <c r="B369" t="s">
+        <v>168</v>
+      </c>
+      <c r="E369" t="s">
         <v>511</v>
       </c>
-      <c r="F367" s="2" t="s">
+      <c r="F369" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="G367" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
+      <c r="G369" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B368" t="s">
-        <v>168</v>
-      </c>
-      <c r="E368" t="s">
+      <c r="B370" t="s">
+        <v>168</v>
+      </c>
+      <c r="E370" t="s">
         <v>512</v>
       </c>
-      <c r="F368" s="2" t="s">
+      <c r="F370" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="G368" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B369" t="s">
-        <v>168</v>
-      </c>
-      <c r="E369" t="s">
-        <v>513</v>
-      </c>
-      <c r="F369" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B370" t="s">
-        <v>168</v>
-      </c>
-      <c r="E370" t="s">
-        <v>514</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>883</v>
-      </c>
       <c r="G370" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7">
       <c r="A371" s="2" t="s">
         <v>155</v>
       </c>
@@ -9451,16 +9427,16 @@
         <v>168</v>
       </c>
       <c r="E371" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G371" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7">
       <c r="A372" s="2" t="s">
         <v>155</v>
       </c>
@@ -9468,67 +9444,67 @@
         <v>168</v>
       </c>
       <c r="E372" t="s">
+        <v>514</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B373" t="s">
+        <v>168</v>
+      </c>
+      <c r="E373" t="s">
+        <v>515</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B374" t="s">
+        <v>168</v>
+      </c>
+      <c r="E374" t="s">
         <v>516</v>
       </c>
-      <c r="F372" s="2" t="s">
+      <c r="F374" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="G372" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
+      <c r="G374" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B373" t="s">
-        <v>168</v>
-      </c>
-      <c r="E373" t="s">
+      <c r="B375" t="s">
+        <v>168</v>
+      </c>
+      <c r="E375" t="s">
         <v>517</v>
       </c>
-      <c r="F373" s="2" t="s">
+      <c r="F375" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="G373" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B374" t="s">
-        <v>168</v>
-      </c>
-      <c r="E374" t="s">
-        <v>518</v>
-      </c>
-      <c r="F374" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="G374" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B375" t="s">
-        <v>168</v>
-      </c>
-      <c r="E375" t="s">
-        <v>519</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>888</v>
-      </c>
       <c r="G375" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7">
       <c r="A376" s="2" t="s">
         <v>157</v>
       </c>
@@ -9536,152 +9512,152 @@
         <v>168</v>
       </c>
       <c r="E376" t="s">
+        <v>518</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B377" t="s">
+        <v>168</v>
+      </c>
+      <c r="E377" t="s">
+        <v>519</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B378" t="s">
+        <v>168</v>
+      </c>
+      <c r="E378" t="s">
         <v>520</v>
       </c>
-      <c r="F376" s="2" t="s">
+      <c r="F378" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="G376" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
+      <c r="G378" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B377" t="s">
-        <v>168</v>
-      </c>
-      <c r="E377" t="s">
+      <c r="B379" t="s">
+        <v>168</v>
+      </c>
+      <c r="E379" t="s">
         <v>521</v>
       </c>
-      <c r="F377" s="2" t="s">
+      <c r="F379" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="G377" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A378" s="2" t="s">
+      <c r="G379" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B378" t="s">
-        <v>168</v>
-      </c>
-      <c r="E378" t="s">
+      <c r="B380" t="s">
+        <v>168</v>
+      </c>
+      <c r="E380" t="s">
         <v>522</v>
       </c>
-      <c r="F378" s="2" t="s">
+      <c r="F380" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="G378" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
+      <c r="G380" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B379" t="s">
-        <v>168</v>
-      </c>
-      <c r="E379" t="s">
+      <c r="B381" t="s">
+        <v>168</v>
+      </c>
+      <c r="E381" t="s">
         <v>523</v>
       </c>
-      <c r="F379" s="2" t="s">
+      <c r="F381" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="G379" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A380" s="2" t="s">
+      <c r="G381" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B380" t="s">
-        <v>168</v>
-      </c>
-      <c r="E380" t="s">
+      <c r="B382" t="s">
+        <v>168</v>
+      </c>
+      <c r="E382" t="s">
         <v>524</v>
       </c>
-      <c r="F380" s="2" t="s">
+      <c r="F382" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="G380" s="2" t="s">
+      <c r="G382" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
+    <row r="383" spans="1:7">
+      <c r="A383" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B381" t="s">
-        <v>168</v>
-      </c>
-      <c r="E381" t="s">
+      <c r="B383" t="s">
+        <v>168</v>
+      </c>
+      <c r="E383" t="s">
         <v>525</v>
       </c>
-      <c r="F381" s="2" t="s">
+      <c r="F383" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="G381" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A382" s="2" t="s">
+      <c r="G383" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B382" t="s">
-        <v>168</v>
-      </c>
-      <c r="E382" t="s">
+      <c r="B384" t="s">
+        <v>168</v>
+      </c>
+      <c r="E384" t="s">
         <v>526</v>
       </c>
-      <c r="F382" s="2" t="s">
+      <c r="F384" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="G382" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A383" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B383" t="s">
-        <v>168</v>
-      </c>
-      <c r="E383" t="s">
-        <v>527</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="G383" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A384" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B384" t="s">
-        <v>168</v>
-      </c>
-      <c r="E384" t="s">
-        <v>528</v>
-      </c>
-      <c r="F384" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="G384" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7">
       <c r="A385" s="2" t="s">
         <v>162</v>
       </c>
@@ -9689,16 +9665,16 @@
         <v>168</v>
       </c>
       <c r="E385" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G385" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7">
       <c r="A386" s="2" t="s">
         <v>162</v>
       </c>
@@ -9706,50 +9682,50 @@
         <v>168</v>
       </c>
       <c r="E386" t="s">
+        <v>528</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B387" t="s">
+        <v>168</v>
+      </c>
+      <c r="E387" t="s">
+        <v>529</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B388" t="s">
+        <v>168</v>
+      </c>
+      <c r="E388" t="s">
         <v>530</v>
       </c>
-      <c r="F386" s="2" t="s">
+      <c r="F388" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="G386" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B387" t="s">
-        <v>168</v>
-      </c>
-      <c r="E387" t="s">
-        <v>531</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A388" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B388" t="s">
-        <v>168</v>
-      </c>
-      <c r="E388" t="s">
-        <v>532</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>901</v>
-      </c>
       <c r="G388" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7">
       <c r="A389" s="2" t="s">
         <v>163</v>
       </c>
@@ -9757,97 +9733,148 @@
         <v>168</v>
       </c>
       <c r="E389" t="s">
+        <v>531</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B390" t="s">
+        <v>168</v>
+      </c>
+      <c r="E390" t="s">
+        <v>532</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B391" t="s">
+        <v>168</v>
+      </c>
+      <c r="E391" t="s">
         <v>533</v>
       </c>
-      <c r="F389" s="2" t="s">
+      <c r="F391" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="G389" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A390" s="2" t="s">
+      <c r="G391" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B390" t="s">
-        <v>168</v>
-      </c>
-      <c r="E390" t="s">
+      <c r="B392" t="s">
+        <v>168</v>
+      </c>
+      <c r="E392" t="s">
         <v>534</v>
       </c>
-      <c r="F390" s="2" t="s">
+      <c r="F392" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="G390" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A391" s="2" t="s">
+      <c r="G392" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B391" t="s">
-        <v>168</v>
-      </c>
-      <c r="E391" t="s">
+      <c r="B393" t="s">
+        <v>168</v>
+      </c>
+      <c r="E393" t="s">
         <v>535</v>
       </c>
-      <c r="F391" s="2" t="s">
+      <c r="F393" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="G391" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A392" s="2" t="s">
+      <c r="G393" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B392" t="s">
-        <v>168</v>
-      </c>
-      <c r="E392" t="s">
+      <c r="B394" t="s">
+        <v>168</v>
+      </c>
+      <c r="E394" t="s">
         <v>536</v>
       </c>
-      <c r="F392" s="2" t="s">
+      <c r="F394" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="G392" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A393" s="2" t="s">
+      <c r="G394" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B393" t="s">
-        <v>168</v>
-      </c>
-      <c r="E393" t="s">
+      <c r="B395" t="s">
+        <v>168</v>
+      </c>
+      <c r="E395" t="s">
         <v>354</v>
       </c>
-      <c r="F393" s="2" t="s">
+      <c r="F395" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="G393" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A394" s="2" t="s">
+      <c r="G395" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B394" t="s">
-        <v>168</v>
-      </c>
-      <c r="E394" t="s">
+      <c r="B396" t="s">
+        <v>168</v>
+      </c>
+      <c r="E396" t="s">
         <v>537</v>
       </c>
-      <c r="F394" s="2" t="s">
+      <c r="F396" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G394" s="2" t="s">
+      <c r="G396" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B397" t="s">
+        <v>168</v>
+      </c>
+      <c r="E397" t="s">
+        <v>537</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G397" s="2" t="s">
         <v>907</v>
       </c>
     </row>
@@ -11032,6 +11059,15 @@
     <hyperlink ref="A394" r:id="rId1177"/>
     <hyperlink ref="F394" r:id="rId1178"/>
     <hyperlink ref="G394" r:id="rId1179"/>
+    <hyperlink ref="A395" r:id="rId1180"/>
+    <hyperlink ref="F395" r:id="rId1181"/>
+    <hyperlink ref="G395" r:id="rId1182"/>
+    <hyperlink ref="A396" r:id="rId1183"/>
+    <hyperlink ref="F396" r:id="rId1184"/>
+    <hyperlink ref="G396" r:id="rId1185"/>
+    <hyperlink ref="A397" r:id="rId1186"/>
+    <hyperlink ref="F397" r:id="rId1187"/>
+    <hyperlink ref="G397" r:id="rId1188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
